--- a/outputs/loads.xlsx
+++ b/outputs/loads.xlsx
@@ -455,50 +455,32 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>6.25</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>12.5</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>18.75</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>25.0</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>31.25</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>37.5</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>43.75</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>50.0</t>
-        </is>
+      <c r="C1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>43.75</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="2">

--- a/outputs/loads.xlsx
+++ b/outputs/loads.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,64 +459,64 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E1" s="1" t="n">
         <v>6.25</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="F1" s="1" t="n">
+        <v>9.375</v>
+      </c>
+      <c r="G1" s="1" t="n">
         <v>12.5</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="H1" s="1" t="n">
+        <v>15.625</v>
+      </c>
+      <c r="I1" s="1" t="n">
         <v>18.75</v>
       </c>
-      <c r="G1" s="1" t="n">
+      <c r="J1" s="1" t="n">
+        <v>21.875</v>
+      </c>
+      <c r="K1" s="1" t="n">
         <v>25</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>31.25</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>43.75</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>50</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
+          <t>MaxBM</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
           <t>ClassA</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>MaxBM</t>
-        </is>
-      </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>2361.037</v>
+        <v>846.163</v>
       </c>
       <c r="E2" t="n">
-        <v>4068.075</v>
+        <v>1471.075</v>
       </c>
       <c r="F2" t="n">
-        <v>5120.737</v>
+        <v>1874.737</v>
       </c>
       <c r="G2" t="n">
-        <v>5526.15</v>
+        <v>2090.85</v>
       </c>
       <c r="H2" t="n">
-        <v>5340.038</v>
+        <v>2094.938</v>
       </c>
       <c r="I2" t="n">
-        <v>4327.675</v>
+        <v>1729.325</v>
       </c>
       <c r="J2" t="n">
-        <v>2494.638</v>
+        <v>1008.8</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -526,32 +526,32 @@
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>MaxSF+</t>
+          <t>Class70RW</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>445.318</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>376.622</v>
+        <v>2092.775</v>
       </c>
       <c r="E3" t="n">
-        <v>307.926</v>
+        <v>3514.55</v>
       </c>
       <c r="F3" t="n">
-        <v>238.122</v>
+        <v>4323.975</v>
       </c>
       <c r="G3" t="n">
-        <v>169.426</v>
+        <v>4627.4</v>
       </c>
       <c r="H3" t="n">
-        <v>99.676</v>
+        <v>4305.225</v>
       </c>
       <c r="I3" t="n">
-        <v>43.52</v>
+        <v>3366.15</v>
       </c>
       <c r="J3" t="n">
-        <v>13.056</v>
+        <v>1936.175</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -561,71 +561,71 @@
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>MaxSF-</t>
+          <t>Class70RT</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-12.03</v>
+        <v>1736.438</v>
       </c>
       <c r="E4" t="n">
-        <v>-51.234</v>
+        <v>2978.275</v>
       </c>
       <c r="F4" t="n">
-        <v>-106.602</v>
+        <v>3721.962</v>
       </c>
       <c r="G4" t="n">
-        <v>-175.162</v>
+        <v>3967.05</v>
       </c>
       <c r="H4" t="n">
-        <v>-244.966</v>
+        <v>3721.088</v>
       </c>
       <c r="I4" t="n">
-        <v>-313.662</v>
+        <v>2977.925</v>
       </c>
       <c r="J4" t="n">
-        <v>-383.466</v>
+        <v>1737.563</v>
       </c>
       <c r="K4" t="n">
-        <v>-452.162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Class70RW</t>
+          <t>MaxSF+</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>MaxBM</t>
+          <t>ClassA</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>336.636</v>
       </c>
       <c r="D5" t="n">
-        <v>4826.025</v>
+        <v>267.94</v>
       </c>
       <c r="E5" t="n">
-        <v>8200.950000000001</v>
+        <v>199.352</v>
       </c>
       <c r="F5" t="n">
-        <v>10182.475</v>
+        <v>140.22</v>
       </c>
       <c r="G5" t="n">
-        <v>10877.4</v>
+        <v>87.04000000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>10163.225</v>
+        <v>52.224</v>
       </c>
       <c r="I5" t="n">
-        <v>8053.75</v>
+        <v>26.112</v>
       </c>
       <c r="J5" t="n">
-        <v>4611.975</v>
+        <v>8.704000000000001</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -635,32 +635,32 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>MaxSF+</t>
+          <t>Class70RW</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>895.524</v>
+        <v>791.048</v>
       </c>
       <c r="D6" t="n">
-        <v>771.524</v>
+        <v>667.048</v>
       </c>
       <c r="E6" t="n">
-        <v>647.524</v>
+        <v>543.048</v>
       </c>
       <c r="F6" t="n">
-        <v>521.524</v>
+        <v>419.048</v>
       </c>
       <c r="G6" t="n">
-        <v>397.524</v>
+        <v>297.928</v>
       </c>
       <c r="H6" t="n">
-        <v>271.524</v>
+        <v>180.84</v>
       </c>
       <c r="I6" t="n">
-        <v>148.964</v>
+        <v>89.896</v>
       </c>
       <c r="J6" t="n">
-        <v>44.948</v>
+        <v>32.844</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -670,151 +670,261 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>MaxSF-</t>
+          <t>Class70RT</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>635.1799999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>-17.024</v>
+        <v>548.38</v>
       </c>
       <c r="E7" t="n">
-        <v>-87.536</v>
+        <v>458.78</v>
       </c>
       <c r="F7" t="n">
-        <v>-208.476</v>
+        <v>371.98</v>
       </c>
       <c r="G7" t="n">
-        <v>-332.476</v>
+        <v>285.18</v>
       </c>
       <c r="H7" t="n">
-        <v>-458.476</v>
+        <v>198.38</v>
       </c>
       <c r="I7" t="n">
-        <v>-582.476</v>
+        <v>108.78</v>
       </c>
       <c r="J7" t="n">
-        <v>-708.476</v>
+        <v>29.144</v>
       </c>
       <c r="K7" t="n">
-        <v>-832.476</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Class70RT</t>
+          <t>MaxSF-</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>MaxBM</t>
+          <t>ClassA</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>3651.438</v>
+        <v>-5.508</v>
       </c>
       <c r="E8" t="n">
-        <v>6259.675</v>
+        <v>-24.06</v>
       </c>
       <c r="F8" t="n">
-        <v>7823.212</v>
+        <v>-66.044</v>
       </c>
       <c r="G8" t="n">
-        <v>8342.049999999999</v>
+        <v>-122.268</v>
       </c>
       <c r="H8" t="n">
-        <v>7823.588</v>
+        <v>-185.524</v>
       </c>
       <c r="I8" t="n">
-        <v>6260.425</v>
+        <v>-254.22</v>
       </c>
       <c r="J8" t="n">
-        <v>3652.563</v>
+        <v>-321.728</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>-383.728</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>MaxSF+</t>
+          <t>Class70RW</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>667.59</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>579.39</v>
+        <v>-9.92</v>
       </c>
       <c r="E9" t="n">
-        <v>492.59</v>
+        <v>-34.048</v>
       </c>
       <c r="F9" t="n">
-        <v>404.39</v>
+        <v>-121.632</v>
       </c>
       <c r="G9" t="n">
-        <v>317.59</v>
+        <v>-244.952</v>
       </c>
       <c r="H9" t="n">
-        <v>229.39</v>
+        <v>-368.952</v>
       </c>
       <c r="I9" t="n">
-        <v>142.59</v>
+        <v>-496.952</v>
       </c>
       <c r="J9" t="n">
-        <v>54.39</v>
+        <v>-618.3920000000001</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>-732.472</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>MaxSF-</t>
+          <t>Class70RT</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-54.81</v>
+        <v>-29.684</v>
       </c>
       <c r="E10" t="n">
-        <v>-143.01</v>
+        <v>-109.62</v>
       </c>
       <c r="F10" t="n">
-        <v>-229.81</v>
+        <v>-196.42</v>
       </c>
       <c r="G10" t="n">
-        <v>-316.61</v>
+        <v>-286.02</v>
       </c>
       <c r="H10" t="n">
-        <v>-404.81</v>
+        <v>-372.82</v>
       </c>
       <c r="I10" t="n">
-        <v>-491.61</v>
+        <v>-459.62</v>
       </c>
       <c r="J10" t="n">
-        <v>-579.8099999999999</v>
+        <v>-546.42</v>
       </c>
       <c r="K10" t="n">
-        <v>-666.61</v>
+        <v>-633.22</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>MaxSF</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>ClassA</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>336.636</v>
+      </c>
+      <c r="D11" t="n">
+        <v>267.94</v>
+      </c>
+      <c r="E11" t="n">
+        <v>199.352</v>
+      </c>
+      <c r="F11" t="n">
+        <v>140.22</v>
+      </c>
+      <c r="G11" t="n">
+        <v>122.268</v>
+      </c>
+      <c r="H11" t="n">
+        <v>185.524</v>
+      </c>
+      <c r="I11" t="n">
+        <v>254.22</v>
+      </c>
+      <c r="J11" t="n">
+        <v>321.728</v>
+      </c>
+      <c r="K11" t="n">
+        <v>383.728</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>Class70RW</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>791.048</v>
+      </c>
+      <c r="D12" t="n">
+        <v>667.048</v>
+      </c>
+      <c r="E12" t="n">
+        <v>543.048</v>
+      </c>
+      <c r="F12" t="n">
+        <v>419.048</v>
+      </c>
+      <c r="G12" t="n">
+        <v>297.928</v>
+      </c>
+      <c r="H12" t="n">
+        <v>368.952</v>
+      </c>
+      <c r="I12" t="n">
+        <v>496.952</v>
+      </c>
+      <c r="J12" t="n">
+        <v>618.3920000000001</v>
+      </c>
+      <c r="K12" t="n">
+        <v>732.472</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>Class70RT</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>635.1799999999999</v>
+      </c>
+      <c r="D13" t="n">
+        <v>548.38</v>
+      </c>
+      <c r="E13" t="n">
+        <v>458.78</v>
+      </c>
+      <c r="F13" t="n">
+        <v>371.98</v>
+      </c>
+      <c r="G13" t="n">
+        <v>286.02</v>
+      </c>
+      <c r="H13" t="n">
+        <v>372.82</v>
+      </c>
+      <c r="I13" t="n">
+        <v>459.62</v>
+      </c>
+      <c r="J13" t="n">
+        <v>546.42</v>
+      </c>
+      <c r="K13" t="n">
+        <v>633.22</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/outputs/loads.xlsx
+++ b/outputs/loads.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,12 +486,12 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
+          <t>MaxBM</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
           <t>ClassA</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>MaxBM</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -526,32 +526,32 @@
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>MaxSF+</t>
+          <t>Class70RW</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>445.318</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>376.622</v>
+        <v>4826.025</v>
       </c>
       <c r="E3" t="n">
-        <v>307.926</v>
+        <v>8200.950000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>238.122</v>
+        <v>10182.475</v>
       </c>
       <c r="G3" t="n">
-        <v>169.426</v>
+        <v>10877.4</v>
       </c>
       <c r="H3" t="n">
-        <v>99.676</v>
+        <v>10163.225</v>
       </c>
       <c r="I3" t="n">
-        <v>43.52</v>
+        <v>8053.75</v>
       </c>
       <c r="J3" t="n">
-        <v>13.056</v>
+        <v>4611.975</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -561,71 +561,71 @@
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>MaxSF-</t>
+          <t>Class70RT</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-12.03</v>
+        <v>3651.438</v>
       </c>
       <c r="E4" t="n">
-        <v>-51.234</v>
+        <v>6259.675</v>
       </c>
       <c r="F4" t="n">
-        <v>-106.602</v>
+        <v>7823.212</v>
       </c>
       <c r="G4" t="n">
-        <v>-175.162</v>
+        <v>8342.049999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>-244.966</v>
+        <v>7823.588</v>
       </c>
       <c r="I4" t="n">
-        <v>-313.662</v>
+        <v>6260.425</v>
       </c>
       <c r="J4" t="n">
-        <v>-383.466</v>
+        <v>3652.563</v>
       </c>
       <c r="K4" t="n">
-        <v>-452.162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Class70RW</t>
+          <t>MaxSF+</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>MaxBM</t>
+          <t>ClassA</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>445.318</v>
       </c>
       <c r="D5" t="n">
-        <v>4826.025</v>
+        <v>376.622</v>
       </c>
       <c r="E5" t="n">
-        <v>8200.950000000001</v>
+        <v>307.926</v>
       </c>
       <c r="F5" t="n">
-        <v>10182.475</v>
+        <v>238.122</v>
       </c>
       <c r="G5" t="n">
-        <v>10877.4</v>
+        <v>169.426</v>
       </c>
       <c r="H5" t="n">
-        <v>10163.225</v>
+        <v>99.676</v>
       </c>
       <c r="I5" t="n">
-        <v>8053.75</v>
+        <v>43.52</v>
       </c>
       <c r="J5" t="n">
-        <v>4611.975</v>
+        <v>13.056</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -635,7 +635,7 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>MaxSF+</t>
+          <t>Class70RW</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -670,116 +670,116 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>MaxSF-</t>
+          <t>Class70RT</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>667.59</v>
       </c>
       <c r="D7" t="n">
-        <v>-17.024</v>
+        <v>579.39</v>
       </c>
       <c r="E7" t="n">
-        <v>-87.536</v>
+        <v>492.59</v>
       </c>
       <c r="F7" t="n">
-        <v>-208.476</v>
+        <v>404.39</v>
       </c>
       <c r="G7" t="n">
-        <v>-332.476</v>
+        <v>317.59</v>
       </c>
       <c r="H7" t="n">
-        <v>-458.476</v>
+        <v>229.39</v>
       </c>
       <c r="I7" t="n">
-        <v>-582.476</v>
+        <v>142.59</v>
       </c>
       <c r="J7" t="n">
-        <v>-708.476</v>
+        <v>54.39</v>
       </c>
       <c r="K7" t="n">
-        <v>-832.476</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Class70RT</t>
+          <t>MaxSF-</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>MaxBM</t>
+          <t>ClassA</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>3651.438</v>
+        <v>-12.03</v>
       </c>
       <c r="E8" t="n">
-        <v>6259.675</v>
+        <v>-51.234</v>
       </c>
       <c r="F8" t="n">
-        <v>7823.212</v>
+        <v>-106.602</v>
       </c>
       <c r="G8" t="n">
-        <v>8342.049999999999</v>
+        <v>-175.162</v>
       </c>
       <c r="H8" t="n">
-        <v>7823.588</v>
+        <v>-244.966</v>
       </c>
       <c r="I8" t="n">
-        <v>6260.425</v>
+        <v>-313.662</v>
       </c>
       <c r="J8" t="n">
-        <v>3652.563</v>
+        <v>-383.466</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>-452.162</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>MaxSF+</t>
+          <t>Class70RW</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>667.59</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>579.39</v>
+        <v>-17.024</v>
       </c>
       <c r="E9" t="n">
-        <v>492.59</v>
+        <v>-87.536</v>
       </c>
       <c r="F9" t="n">
-        <v>404.39</v>
+        <v>-208.476</v>
       </c>
       <c r="G9" t="n">
-        <v>317.59</v>
+        <v>-332.476</v>
       </c>
       <c r="H9" t="n">
-        <v>229.39</v>
+        <v>-458.476</v>
       </c>
       <c r="I9" t="n">
-        <v>142.59</v>
+        <v>-582.476</v>
       </c>
       <c r="J9" t="n">
-        <v>54.39</v>
+        <v>-708.476</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>-832.476</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>MaxSF-</t>
+          <t>Class70RT</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -810,11 +810,121 @@
         <v>-666.61</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>MaxSF</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>ClassA</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>445.318</v>
+      </c>
+      <c r="D11" t="n">
+        <v>376.622</v>
+      </c>
+      <c r="E11" t="n">
+        <v>307.926</v>
+      </c>
+      <c r="F11" t="n">
+        <v>238.122</v>
+      </c>
+      <c r="G11" t="n">
+        <v>175.162</v>
+      </c>
+      <c r="H11" t="n">
+        <v>244.966</v>
+      </c>
+      <c r="I11" t="n">
+        <v>313.662</v>
+      </c>
+      <c r="J11" t="n">
+        <v>383.466</v>
+      </c>
+      <c r="K11" t="n">
+        <v>452.162</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>Class70RW</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>895.524</v>
+      </c>
+      <c r="D12" t="n">
+        <v>771.524</v>
+      </c>
+      <c r="E12" t="n">
+        <v>647.524</v>
+      </c>
+      <c r="F12" t="n">
+        <v>521.524</v>
+      </c>
+      <c r="G12" t="n">
+        <v>397.524</v>
+      </c>
+      <c r="H12" t="n">
+        <v>458.476</v>
+      </c>
+      <c r="I12" t="n">
+        <v>582.476</v>
+      </c>
+      <c r="J12" t="n">
+        <v>708.476</v>
+      </c>
+      <c r="K12" t="n">
+        <v>832.476</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>Class70RT</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>667.59</v>
+      </c>
+      <c r="D13" t="n">
+        <v>579.39</v>
+      </c>
+      <c r="E13" t="n">
+        <v>492.59</v>
+      </c>
+      <c r="F13" t="n">
+        <v>404.39</v>
+      </c>
+      <c r="G13" t="n">
+        <v>317.59</v>
+      </c>
+      <c r="H13" t="n">
+        <v>404.81</v>
+      </c>
+      <c r="I13" t="n">
+        <v>491.61</v>
+      </c>
+      <c r="J13" t="n">
+        <v>579.8099999999999</v>
+      </c>
+      <c r="K13" t="n">
+        <v>666.61</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/outputs/loads.xlsx
+++ b/outputs/loads.xlsx
@@ -628,7 +628,7 @@
         <v>13.056</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="6">
@@ -663,7 +663,7 @@
         <v>44.948</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="7">
@@ -698,7 +698,7 @@
         <v>54.39</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="8">

--- a/outputs/loads.xlsx
+++ b/outputs/loads.xlsx
@@ -459,28 +459,28 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="n">
-        <v>6.25</v>
+        <v>7.5</v>
       </c>
       <c r="E1" s="1" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="n">
-        <v>18.75</v>
+        <v>22.5</v>
       </c>
       <c r="G1" s="1" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H1" s="1" t="n">
-        <v>31.25</v>
+        <v>37.5</v>
       </c>
       <c r="I1" s="1" t="n">
-        <v>37.5</v>
+        <v>45</v>
       </c>
       <c r="J1" s="1" t="n">
-        <v>43.75</v>
+        <v>52.5</v>
       </c>
       <c r="K1" s="1" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2">
@@ -498,25 +498,25 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>2361.037</v>
+        <v>2967.038</v>
       </c>
       <c r="E2" t="n">
-        <v>4068.075</v>
+        <v>5106.825</v>
       </c>
       <c r="F2" t="n">
-        <v>5120.737</v>
+        <v>6419.363</v>
       </c>
       <c r="G2" t="n">
-        <v>5526.15</v>
+        <v>6911.15</v>
       </c>
       <c r="H2" t="n">
-        <v>5340.038</v>
+        <v>6640.462</v>
       </c>
       <c r="I2" t="n">
-        <v>4327.675</v>
+        <v>5366.425</v>
       </c>
       <c r="J2" t="n">
-        <v>2494.638</v>
+        <v>3101.337</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -533,25 +533,25 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>4826.025</v>
+        <v>5922.025</v>
       </c>
       <c r="E3" t="n">
-        <v>8200.950000000001</v>
+        <v>10075.95</v>
       </c>
       <c r="F3" t="n">
-        <v>10182.475</v>
+        <v>12527.975</v>
       </c>
       <c r="G3" t="n">
-        <v>10877.4</v>
+        <v>13377.4</v>
       </c>
       <c r="H3" t="n">
-        <v>10163.225</v>
+        <v>12509.725</v>
       </c>
       <c r="I3" t="n">
-        <v>8053.75</v>
+        <v>9928.75</v>
       </c>
       <c r="J3" t="n">
-        <v>4611.975</v>
+        <v>5703.475</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -568,25 +568,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>3651.438</v>
+        <v>4417.237</v>
       </c>
       <c r="E4" t="n">
-        <v>6259.675</v>
+        <v>7572.175</v>
       </c>
       <c r="F4" t="n">
-        <v>7823.212</v>
+        <v>9463.362999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>8342.049999999999</v>
+        <v>10092.05</v>
       </c>
       <c r="H4" t="n">
-        <v>7823.588</v>
+        <v>9463.588</v>
       </c>
       <c r="I4" t="n">
-        <v>6260.425</v>
+        <v>7572.925</v>
       </c>
       <c r="J4" t="n">
-        <v>3652.563</v>
+        <v>4416.313</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -604,28 +604,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>445.318</v>
+        <v>463.432</v>
       </c>
       <c r="D5" t="n">
-        <v>376.622</v>
+        <v>395.105</v>
       </c>
       <c r="E5" t="n">
-        <v>307.926</v>
+        <v>325.855</v>
       </c>
       <c r="F5" t="n">
-        <v>238.122</v>
+        <v>256.605</v>
       </c>
       <c r="G5" t="n">
-        <v>169.426</v>
+        <v>187.355</v>
       </c>
       <c r="H5" t="n">
-        <v>99.676</v>
+        <v>118.105</v>
       </c>
       <c r="I5" t="n">
-        <v>43.52</v>
+        <v>51.78</v>
       </c>
       <c r="J5" t="n">
-        <v>13.056</v>
+        <v>15.3</v>
       </c>
       <c r="K5" t="n">
         <v>-0</v>
@@ -639,28 +639,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>895.524</v>
+        <v>912.937</v>
       </c>
       <c r="D6" t="n">
-        <v>771.524</v>
+        <v>789.603</v>
       </c>
       <c r="E6" t="n">
-        <v>647.524</v>
+        <v>664.603</v>
       </c>
       <c r="F6" t="n">
-        <v>521.524</v>
+        <v>539.603</v>
       </c>
       <c r="G6" t="n">
-        <v>397.524</v>
+        <v>414.603</v>
       </c>
       <c r="H6" t="n">
-        <v>271.524</v>
+        <v>289.603</v>
       </c>
       <c r="I6" t="n">
-        <v>148.964</v>
+        <v>164.603</v>
       </c>
       <c r="J6" t="n">
-        <v>44.948</v>
+        <v>52.19</v>
       </c>
       <c r="K6" t="n">
         <v>-0</v>
@@ -674,28 +674,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>667.59</v>
+        <v>672.992</v>
       </c>
       <c r="D7" t="n">
-        <v>579.39</v>
+        <v>585.492</v>
       </c>
       <c r="E7" t="n">
-        <v>492.59</v>
+        <v>497.992</v>
       </c>
       <c r="F7" t="n">
-        <v>404.39</v>
+        <v>410.492</v>
       </c>
       <c r="G7" t="n">
-        <v>317.59</v>
+        <v>322.992</v>
       </c>
       <c r="H7" t="n">
-        <v>229.39</v>
+        <v>235.492</v>
       </c>
       <c r="I7" t="n">
-        <v>142.59</v>
+        <v>147.992</v>
       </c>
       <c r="J7" t="n">
-        <v>54.39</v>
+        <v>60.492</v>
       </c>
       <c r="K7" t="n">
         <v>-0</v>
@@ -716,28 +716,28 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-12.03</v>
+        <v>-16.135</v>
       </c>
       <c r="E8" t="n">
-        <v>-51.234</v>
+        <v>-59.772</v>
       </c>
       <c r="F8" t="n">
-        <v>-106.602</v>
+        <v>-122.885</v>
       </c>
       <c r="G8" t="n">
-        <v>-175.162</v>
+        <v>-192.135</v>
       </c>
       <c r="H8" t="n">
-        <v>-244.966</v>
+        <v>-261.385</v>
       </c>
       <c r="I8" t="n">
-        <v>-313.662</v>
+        <v>-330.635</v>
       </c>
       <c r="J8" t="n">
-        <v>-383.466</v>
+        <v>-399.885</v>
       </c>
       <c r="K8" t="n">
-        <v>-452.162</v>
+        <v>-469.135</v>
       </c>
     </row>
     <row r="9">
@@ -751,28 +751,28 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-17.024</v>
+        <v>-21.12</v>
       </c>
       <c r="E9" t="n">
-        <v>-87.536</v>
+        <v>-112.063</v>
       </c>
       <c r="F9" t="n">
-        <v>-208.476</v>
+        <v>-235.397</v>
       </c>
       <c r="G9" t="n">
-        <v>-332.476</v>
+        <v>-360.397</v>
       </c>
       <c r="H9" t="n">
-        <v>-458.476</v>
+        <v>-485.397</v>
       </c>
       <c r="I9" t="n">
-        <v>-582.476</v>
+        <v>-610.397</v>
       </c>
       <c r="J9" t="n">
-        <v>-708.476</v>
+        <v>-735.397</v>
       </c>
       <c r="K9" t="n">
-        <v>-832.476</v>
+        <v>-860.397</v>
       </c>
     </row>
     <row r="10">
@@ -786,28 +786,28 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-54.81</v>
+        <v>-60.842</v>
       </c>
       <c r="E10" t="n">
-        <v>-143.01</v>
+        <v>-148.342</v>
       </c>
       <c r="F10" t="n">
-        <v>-229.81</v>
+        <v>-234.675</v>
       </c>
       <c r="G10" t="n">
-        <v>-316.61</v>
+        <v>-322.175</v>
       </c>
       <c r="H10" t="n">
-        <v>-404.81</v>
+        <v>-409.675</v>
       </c>
       <c r="I10" t="n">
-        <v>-491.61</v>
+        <v>-497.175</v>
       </c>
       <c r="J10" t="n">
-        <v>-579.8099999999999</v>
+        <v>-584.675</v>
       </c>
       <c r="K10" t="n">
-        <v>-666.61</v>
+        <v>-672.175</v>
       </c>
     </row>
     <row r="11">
@@ -822,31 +822,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>445.318</v>
+        <v>463.432</v>
       </c>
       <c r="D11" t="n">
-        <v>376.622</v>
+        <v>395.105</v>
       </c>
       <c r="E11" t="n">
-        <v>307.926</v>
+        <v>325.855</v>
       </c>
       <c r="F11" t="n">
-        <v>238.122</v>
+        <v>256.605</v>
       </c>
       <c r="G11" t="n">
-        <v>175.162</v>
+        <v>192.135</v>
       </c>
       <c r="H11" t="n">
-        <v>244.966</v>
+        <v>261.385</v>
       </c>
       <c r="I11" t="n">
-        <v>313.662</v>
+        <v>330.635</v>
       </c>
       <c r="J11" t="n">
-        <v>383.466</v>
+        <v>399.885</v>
       </c>
       <c r="K11" t="n">
-        <v>452.162</v>
+        <v>469.135</v>
       </c>
     </row>
     <row r="12">
@@ -857,31 +857,31 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>895.524</v>
+        <v>912.937</v>
       </c>
       <c r="D12" t="n">
-        <v>771.524</v>
+        <v>789.603</v>
       </c>
       <c r="E12" t="n">
-        <v>647.524</v>
+        <v>664.603</v>
       </c>
       <c r="F12" t="n">
-        <v>521.524</v>
+        <v>539.603</v>
       </c>
       <c r="G12" t="n">
-        <v>397.524</v>
+        <v>414.603</v>
       </c>
       <c r="H12" t="n">
-        <v>458.476</v>
+        <v>485.397</v>
       </c>
       <c r="I12" t="n">
-        <v>582.476</v>
+        <v>610.397</v>
       </c>
       <c r="J12" t="n">
-        <v>708.476</v>
+        <v>735.397</v>
       </c>
       <c r="K12" t="n">
-        <v>832.476</v>
+        <v>860.397</v>
       </c>
     </row>
     <row r="13">
@@ -892,31 +892,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>667.59</v>
+        <v>672.992</v>
       </c>
       <c r="D13" t="n">
-        <v>579.39</v>
+        <v>585.492</v>
       </c>
       <c r="E13" t="n">
-        <v>492.59</v>
+        <v>497.992</v>
       </c>
       <c r="F13" t="n">
-        <v>404.39</v>
+        <v>410.492</v>
       </c>
       <c r="G13" t="n">
-        <v>317.59</v>
+        <v>322.992</v>
       </c>
       <c r="H13" t="n">
-        <v>404.81</v>
+        <v>409.675</v>
       </c>
       <c r="I13" t="n">
-        <v>491.61</v>
+        <v>497.175</v>
       </c>
       <c r="J13" t="n">
-        <v>579.8099999999999</v>
+        <v>584.675</v>
       </c>
       <c r="K13" t="n">
-        <v>666.61</v>
+        <v>672.175</v>
       </c>
     </row>
   </sheetData>
